--- a/trunk/Project/Test/BichTT_GUI_RHF.xlsx
+++ b/trunk/Project/Test/BichTT_GUI_RHF.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="8265" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="17496" windowHeight="8268" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GUI Test" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Search Result Page" sheetId="5" r:id="rId6"/>
     <sheet name="Bugs list" sheetId="6" r:id="rId7"/>
     <sheet name="Test report" sheetId="8" r:id="rId8"/>
+    <sheet name="Evidence" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="297">
   <si>
     <t>Module code</t>
   </si>
@@ -986,12 +987,167 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Visitor register unsuccessfully</t>
+  </si>
+  <si>
+    <t>TC-2</t>
+  </si>
+  <si>
+    <t>BugID</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Test-case</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>Test case Title</t>
+  </si>
+  <si>
+    <t>Test procedure</t>
+  </si>
+  <si>
+    <t>Test date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visitor clicks on "Đăng ký" button on top right of website.
+2. Visitor input valid data in all field but don’t click on check box “Tôi đồng ý điều khoản sử dụng”
+3. Click “Đăng ký” button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. System display register page.
+2. System get data and valid
+3. System re-display register page and send a message “Bạn phải đồng ý với các điểu khoản của chúng tôi”
+</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>HưngCQ</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Visitor search unsuccessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visitor access Home page
+2. Visitor don't change any information and just click search button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. System display Home page.
+2. System re-direct to Search result page with order and total number of result
+</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>TC-11</t>
+  </si>
+  <si>
+    <t>Create a new post unsuccessful incase user input invalid data to "Giá tiền (triệu VND/tháng)" field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clicks on “Đăng tin mới” button on top site
+2. Input invalid data into " Giá tiền (triệu VND/tháng)" fields, valid data into other fields and clicks on "Đăng tin ngay!" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Form create new post is opened
+2. Display error message "Sai định dạng. Xin vui lòng nhập số" and re-display create new post
+</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>TC-9</t>
+  </si>
+  <si>
+    <t>Create a new post unsuccessful incase user input invalid data to "Diện tích (m2)" field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clicks on “Đăng tin mới” button on top site
+2. Input invalid data into "Diện tích(m2)" fields, valid data into other fields and clicks on "Đăng tin ngay" button
+</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>Create a new post unsuccessful incase user input invalid data to "Giờ đóng cửa" field.</t>
+  </si>
+  <si>
+    <t>1. Form create new post is opened
+2. Display error message "Sai định dạng. Xin vui lòng nhập số" and re-display create new post</t>
+  </si>
+  <si>
+    <t>1. Clicks on “Đăng tin mới” button on top site
+2. Input invalid data into "Giờ đóng cửa" fields, valid data into other fields and clicks on "Đăng tin ngay" button</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>User change name unsuccessfully</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>Assign fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on user name display in top right side of website.
+2. Click on “Thay đổi thong tin” button.
+3. User input invalid name with more than 50 characters
+4. Click on button “Lưu thay đổi”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. System display information of "Thông tin tài khoản" tab. 
+2. System display information of "Thay đổi thông tin" page.
+3. System gets inputed data.
+4. System sends a message “Họ và tên không vượt quá 50 ký tự. Xin vui lòng nhập lại" </t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>User add more 1 post to compare unsuccessful</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on check box for 1 post in "Danh sách quan tâm" hyperlink
+2. Click on “So sánh” button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. System display “Danh sách quan tâm” pop-up with value of checked box.
+2. System display a pop-up with a message “Hiện tại chúng tôi chỉ hỗ trợ so sánh tối đa 3 bài đăng”
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,8 +1222,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1276,11 +1444,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF538ED5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF538ED5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF538ED5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1349,13 +1537,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1364,17 +1564,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,10 +1601,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1406,23 +1612,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1671,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1513,7 +1720,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1562,7 +1769,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1611,7 +1818,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1660,7 +1867,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1758,7 +1965,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1793,7 +1999,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1969,114 +2174,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E93" sqref="E93:H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="8" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="32" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
+      <c r="A5" s="49"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6">
       <c r="A6" s="10" t="s">
         <v>54</v>
       </c>
@@ -2089,18 +2294,18 @@
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="72">
       <c r="A7" s="10" t="s">
         <v>55</v>
       </c>
@@ -2113,18 +2318,18 @@
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="83.25" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
@@ -2137,18 +2342,18 @@
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="78" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2161,18 +2366,18 @@
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="79.5" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2185,18 +2390,18 @@
       <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="94.5" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2209,18 +2414,18 @@
       <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="96.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -2233,103 +2438,103 @@
       <c r="D12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" customHeight="1"/>
+    <row r="16" spans="1:10">
       <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="23"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="32" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" ht="81" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
@@ -2342,18 +2547,18 @@
       <c r="D21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="72">
       <c r="A22" s="10" t="s">
         <v>88</v>
       </c>
@@ -2366,18 +2571,18 @@
       <c r="D22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="92.25" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>89</v>
       </c>
@@ -2390,18 +2595,18 @@
       <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="96.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -2414,18 +2619,18 @@
       <c r="D24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="86.25" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>37</v>
       </c>
@@ -2438,18 +2643,18 @@
       <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="147.75" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -2462,18 +2667,18 @@
       <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="142.5" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -2486,18 +2691,18 @@
       <c r="D27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="89.25" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
@@ -2510,102 +2715,102 @@
       <c r="D28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="23"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="32" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" ht="72">
       <c r="A37" s="10" t="s">
         <v>74</v>
       </c>
@@ -2618,18 +2823,18 @@
       <c r="D37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="72">
       <c r="A38" s="10" t="s">
         <v>75</v>
       </c>
@@ -2642,18 +2847,18 @@
       <c r="D38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="72">
       <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
@@ -2666,18 +2871,18 @@
       <c r="D39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="72">
       <c r="A40" s="10" t="s">
         <v>77</v>
       </c>
@@ -2690,18 +2895,18 @@
       <c r="D40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="78.75" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>78</v>
       </c>
@@ -2714,18 +2919,18 @@
       <c r="D41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="86.4">
       <c r="A42" s="10" t="s">
         <v>80</v>
       </c>
@@ -2738,18 +2943,18 @@
       <c r="D42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="86.4">
       <c r="A43" s="10" t="s">
         <v>79</v>
       </c>
@@ -2762,18 +2967,18 @@
       <c r="D43" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="86.4">
       <c r="A44" s="10" t="s">
         <v>81</v>
       </c>
@@ -2786,18 +2991,18 @@
       <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90.75" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
@@ -2810,18 +3015,18 @@
       <c r="D45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="113.25" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>86</v>
       </c>
@@ -2834,18 +3039,18 @@
       <c r="D46" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2856,7 +3061,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -2868,7 +3073,7 @@
       <c r="I48" s="15"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -2880,91 +3085,91 @@
       <c r="I49" s="15"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="23"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="32" t="s">
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-    </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="1:10" ht="57.6">
       <c r="A55" s="10" t="s">
         <v>219</v>
       </c>
@@ -2977,18 +3182,18 @@
       <c r="D55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
       <c r="I55" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="57.6">
       <c r="A56" s="10" t="s">
         <v>220</v>
       </c>
@@ -3001,18 +3206,18 @@
       <c r="D56" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="57.6">
       <c r="A57" s="10" t="s">
         <v>221</v>
       </c>
@@ -3025,18 +3230,18 @@
       <c r="D57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
       <c r="I57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="57.6">
       <c r="A58" s="10" t="s">
         <v>18</v>
       </c>
@@ -3049,18 +3254,18 @@
       <c r="D58" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
       <c r="I58" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="57.6">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -3073,18 +3278,18 @@
       <c r="D59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
       <c r="I59" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="57.6">
       <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
@@ -3097,18 +3302,18 @@
       <c r="D60" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
       <c r="I60" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="57.6">
       <c r="A61" s="10" t="s">
         <v>23</v>
       </c>
@@ -3121,18 +3326,18 @@
       <c r="D61" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
       <c r="I61" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="57.6">
       <c r="A62" s="10" t="s">
         <v>24</v>
       </c>
@@ -3145,18 +3350,18 @@
       <c r="D62" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
       <c r="I62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="57.6">
       <c r="A63" s="10" t="s">
         <v>25</v>
       </c>
@@ -3169,18 +3374,18 @@
       <c r="D63" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
       <c r="I63" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="8" customFormat="1" ht="72">
       <c r="A64" s="10" t="s">
         <v>26</v>
       </c>
@@ -3193,18 +3398,18 @@
       <c r="D64" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
       <c r="I64" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="8" customFormat="1">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -3216,91 +3421,91 @@
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="23"/>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="32" t="s">
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="34"/>
-    </row>
-    <row r="73" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" spans="1:10" ht="75" customHeight="1">
       <c r="A73" s="10" t="s">
         <v>110</v>
       </c>
@@ -3313,18 +3518,18 @@
       <c r="D73" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
       <c r="I73" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="75" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>111</v>
       </c>
@@ -3337,18 +3542,18 @@
       <c r="D74" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
       <c r="I74" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="75" customHeight="1">
       <c r="A75" s="10" t="s">
         <v>112</v>
       </c>
@@ -3361,18 +3566,18 @@
       <c r="D75" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="34"/>
       <c r="I75" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="86.4">
       <c r="A76" s="10" t="s">
         <v>105</v>
       </c>
@@ -3385,18 +3590,18 @@
       <c r="D76" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="86.4">
       <c r="A77" s="10" t="s">
         <v>106</v>
       </c>
@@ -3409,18 +3614,18 @@
       <c r="D77" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="86.4">
       <c r="A78" s="10" t="s">
         <v>107</v>
       </c>
@@ -3433,18 +3638,18 @@
       <c r="D78" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="34"/>
       <c r="I78" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="90" customHeight="1">
       <c r="A79" s="10" t="s">
         <v>108</v>
       </c>
@@ -3457,18 +3662,18 @@
       <c r="D79" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
       <c r="I79" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="90" customHeight="1">
       <c r="A80" s="10" t="s">
         <v>109</v>
       </c>
@@ -3481,18 +3686,18 @@
       <c r="D80" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
       <c r="I80" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A81" s="10" t="s">
         <v>176</v>
       </c>
@@ -3505,18 +3710,18 @@
       <c r="D81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
       <c r="I81" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A82" s="10" t="s">
         <v>175</v>
       </c>
@@ -3529,18 +3734,18 @@
       <c r="D82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
       <c r="I82" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J82" s="9"/>
     </row>
-    <row r="83" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>177</v>
       </c>
@@ -3553,18 +3758,18 @@
       <c r="D83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
       <c r="I83" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>208</v>
       </c>
@@ -3577,18 +3782,18 @@
       <c r="D84" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="30"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
       <c r="I84" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>209</v>
       </c>
@@ -3601,18 +3806,18 @@
       <c r="D85" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
       <c r="I85" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>210</v>
       </c>
@@ -3625,18 +3830,18 @@
       <c r="D86" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="30"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34"/>
       <c r="I86" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A87" s="10" t="s">
         <v>211</v>
       </c>
@@ -3649,18 +3854,18 @@
       <c r="D87" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
       <c r="I87" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>212</v>
       </c>
@@ -3673,18 +3878,18 @@
       <c r="D88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34"/>
       <c r="I88" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A89" s="10" t="s">
         <v>213</v>
       </c>
@@ -3697,18 +3902,18 @@
       <c r="D89" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="34"/>
       <c r="I89" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>214</v>
       </c>
@@ -3721,18 +3926,18 @@
       <c r="D90" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="34"/>
       <c r="I90" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>215</v>
       </c>
@@ -3745,18 +3950,18 @@
       <c r="D91" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="30"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="34"/>
       <c r="I91" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" s="8" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="8" customFormat="1" ht="151.5" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>216</v>
       </c>
@@ -3769,18 +3974,18 @@
       <c r="D92" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
       <c r="I92" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="8" customFormat="1" ht="90" customHeight="1">
       <c r="A93" s="10" t="s">
         <v>217</v>
       </c>
@@ -3793,12 +3998,12 @@
       <c r="D93" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="34"/>
       <c r="I93" s="10" t="s">
         <v>14</v>
       </c>
@@ -3806,36 +4011,58 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B52:J52"/>
     <mergeCell ref="E71:H72"/>
     <mergeCell ref="E73:H73"/>
@@ -3860,58 +4087,36 @@
     <mergeCell ref="B68:J68"/>
     <mergeCell ref="B69:J69"/>
     <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:H80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3919,14 +4124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3934,14 +4139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3949,14 +4154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3964,14 +4169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3979,14 +4184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3994,45 +4199,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="35" style="22" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="20"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="20"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
         <v>113</v>
       </c>
@@ -4055,12 +4261,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="92.25" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>120</v>
@@ -4076,7 +4282,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="110.25" customHeight="1">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4097,7 +4303,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="81.75" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -4118,7 +4324,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="95.25" customHeight="1">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -4141,7 +4347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="81" customHeight="1">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -4162,7 +4368,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="90" customHeight="1">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -4183,7 +4389,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="102" customHeight="1">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4204,7 +4410,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -4225,27 +4431,27 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
         <v>113</v>
       </c>
@@ -4268,7 +4474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="44.25" customHeight="1">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -4289,7 +4495,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="36" customHeight="1">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -4310,7 +4516,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="66.75" customHeight="1">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -4331,7 +4537,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="36.75" customHeight="1">
       <c r="A21" s="9">
         <v>4</v>
       </c>
@@ -4352,7 +4558,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="21.75" customHeight="1">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -4373,7 +4579,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="21.75" customHeight="1">
       <c r="A23" s="9">
         <v>6</v>
       </c>
@@ -4394,7 +4600,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="23.25" customHeight="1">
       <c r="A24" s="9">
         <v>7</v>
       </c>
@@ -4415,7 +4621,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="51.75" customHeight="1">
       <c r="A25" s="9">
         <v>8</v>
       </c>
@@ -4436,7 +4642,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="38.25" customHeight="1">
       <c r="A26" s="9">
         <v>9</v>
       </c>
@@ -4457,7 +4663,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>10</v>
       </c>
@@ -4489,22 +4695,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
         <v>234</v>
       </c>
@@ -4521,7 +4727,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
         <v>229</v>
       </c>
@@ -4538,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
         <v>228</v>
       </c>
@@ -4555,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="25"/>
       <c r="B4" s="25">
         <v>310</v>
@@ -4570,361 +4776,361 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="6" spans="1:5" ht="15" thickBot="1"/>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="29">
         <v>20</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="29">
         <v>0</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="29">
         <v>21</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="29">
         <v>0</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="29">
         <v>0</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="29">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="29">
         <v>0</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="29">
         <v>0</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="29">
         <v>10</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="29">
         <v>0</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="29">
         <v>0</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="29">
         <v>51</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="29">
         <v>0</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="29">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="29">
         <v>20</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="29">
         <v>0</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="29">
         <v>2</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="29">
         <v>0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="29">
         <v>0</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="29">
         <v>7</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="29">
         <v>0</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="29">
         <v>4</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="29">
         <v>0</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="29">
         <v>0</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="29">
         <v>5</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="29">
         <v>0</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="29">
         <v>6</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="29">
         <v>0</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="29">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="29">
         <v>21</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="29">
         <v>0</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="29">
         <v>0</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="29">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="29">
         <v>42</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="29">
         <v>0</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="29">
         <v>0</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="29">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="29">
         <v>3</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="29">
         <v>0</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="29">
         <v>0</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="29">
         <v>12</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="29">
         <v>0</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="29">
         <v>0</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="29">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="48">
-        <v>14</v>
-      </c>
-      <c r="C23" s="48">
+      <c r="B23" s="29">
+        <v>14</v>
+      </c>
+      <c r="C23" s="29">
         <v>0</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="29">
         <v>0</v>
       </c>
-      <c r="E23" s="48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="E23" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="29">
         <v>2</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="29">
         <v>0</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="29">
         <v>0</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="29">
         <v>4</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="29">
         <v>0</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="29">
         <v>0</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="29">
         <v>5</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="29">
         <v>0</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="29">
         <v>0</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="31">
         <v>254</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="31">
         <v>0</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="31">
         <v>0</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="31">
         <v>254</v>
       </c>
     </row>
@@ -4932,4 +5138,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8">
+      <c r="B2" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="115.8" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="54">
+        <v>41363</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72">
+      <c r="A4" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.8">
+      <c r="A5" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100.8">
+      <c r="A6" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="86.4">
+      <c r="A7" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="145.19999999999999" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="115.2">
+      <c r="A9" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="54">
+        <v>41373</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>